--- a/Fiches_Presence.xlsx
+++ b/Fiches_Presence.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="28">
   <si>
     <t>Fiche de présence - الإثنين</t>
   </si>
@@ -97,6 +97,11 @@
   </si>
   <si>
     <t>17&lt;=16</t>
+  </si>
+  <si>
+    <t>Module M1_x000D_
+MACON-15_x000D_
+قاعة عدد 1</t>
   </si>
   <si>
     <t>Fiche de présence - الثلاثاء</t>
@@ -115,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +151,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.14996795556505021"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="lightDown">
@@ -187,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -200,7 +218,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,7 +505,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,238 +543,239 @@
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="19" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -764,286 +786,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="5" width="19.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,248 +824,247 @@
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="19" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil4"/>
-  <dimension ref="A1:E31"/>
+  <sheetPr codeName="Feuil3"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
@@ -1360,238 +1102,515 @@
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="19" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil4"/>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="5" width="19.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1601,7 +1620,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1612,7 +1631,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1639,238 +1658,237 @@
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="19" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
